--- a/LPPC/Plugins/topsky/Documentation/TopSky_Developer_Guide_Settings.xlsx
+++ b/LPPC/Plugins/topsky/Documentation/TopSky_Developer_Guide_Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ADFE31-0E01-455A-911D-06A3D5582E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D80BC-A202-455F-B1CA-D51E29319148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="150" windowWidth="28035" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="135" windowWidth="28035" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopSky 2.4" sheetId="1" r:id="rId1"/>
@@ -3973,9 +3973,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>-1 (disabled completely - set this if using another RDF plugin), 0 (off), 1 (Prim freq only) or 2 (all)</t>
-  </si>
-  <si>
     <t>WXR_TestMode</t>
   </si>
   <si>
@@ -5251,9 +5248,6 @@
     <t>List_VFR_FPL_Area</t>
   </si>
   <si>
-    <t>0 (no filtering), 1 (only tracks currently inside a defined area), 2 (only tracks predicted to enter the active sector)</t>
-  </si>
-  <si>
     <t>"lat,lon,radius" to define a circle, or "lat1,lon1,lat2,lon2,lat3,lon3,…" to define a polygon. Latitudes and longitudes must be in decimal degrees, radius from 0.1 to 9999 in nautical miles. When using a polygon, make it as simple as possible as the number of vertices has a performance impact.</t>
   </si>
   <si>
@@ -5705,6 +5699,12 @@
   </si>
   <si>
     <t>Maximum number of conflicts displayed (no effect yet, setting name only defined for future use…)</t>
+  </si>
+  <si>
+    <t>0 (no filtering), 1 (only tracks currently inside a defined area - see "List_VFR_FPL_Area" - if no area defined then no filtering), 2 (only tracks predicted to enter the active sector)</t>
+  </si>
+  <si>
+    <t>-1 (disabled completely - set this if using another RDF plugin), 0 (off), 1 (Prim freq only - currently same as setting "2" until frequency information is actually available) or 2 (all)</t>
   </si>
 </sst>
 </file>
@@ -9351,7 +9351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9461,7 +9461,7 @@
         <v>594</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C5" t="s">
         <v>138</v>
@@ -9478,7 +9478,7 @@
         <v>805</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C6" t="s">
         <v>138</v>
@@ -9529,10 +9529,10 @@
         <v>1147</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C9" t="s">
         <v>1595</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1596</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>151</v>
@@ -9553,13 +9553,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C10" t="s">
         <v>1373</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1374</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>802</v>
@@ -9627,13 +9627,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1710</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" t="s">
         <v>1711</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1712</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>151</v>
@@ -9650,10 +9650,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>1713</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1714</v>
       </c>
       <c r="C15" t="s">
         <v>136</v>
@@ -9737,10 +9737,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C18" t="s">
         <v>157</v>
@@ -9772,10 +9772,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C19" t="s">
         <v>157</v>
@@ -9856,7 +9856,7 @@
         <v>138</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>932</v>
@@ -9887,7 +9887,7 @@
         <v>115</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C24" t="s">
         <v>138</v>
@@ -9896,7 +9896,7 @@
         <v>997</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
         <v>124</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C25" t="s">
         <v>138</v>
@@ -9938,7 +9938,7 @@
         <v>953</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C27" t="s">
         <v>157</v>
@@ -9958,13 +9958,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C28" t="s">
         <v>1436</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1437</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>148</v>
@@ -10016,7 +10016,7 @@
         <v>639</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>638</v>
@@ -10098,10 +10098,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C36" t="s">
         <v>136</v>
@@ -10121,7 +10121,7 @@
         <v>1274</v>
       </c>
       <c r="C37" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>802</v>
@@ -10207,7 +10207,7 @@
         <v>236</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
@@ -10255,10 +10255,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>1785</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>1787</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>519</v>
@@ -10292,13 +10292,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>1673</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>1674</v>
-      </c>
       <c r="C47" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>802</v>
@@ -10768,7 +10768,7 @@
         <v>992</v>
       </c>
       <c r="C70" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>151</v>
@@ -10802,10 +10802,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>1614</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>1615</v>
       </c>
       <c r="C72" t="s">
         <v>136</v>
@@ -10828,7 +10828,7 @@
         <v>137</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>1177</v>
@@ -11185,7 +11185,7 @@
         <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>623</v>
@@ -11202,7 +11202,7 @@
         <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>621</v>
@@ -11219,7 +11219,7 @@
         <v>137</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>64</v>
@@ -11287,10 +11287,10 @@
         <v>137</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -11375,7 +11375,7 @@
         <v>72</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -11409,7 +11409,7 @@
         <v>66</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -11426,7 +11426,7 @@
         <v>54</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -11457,7 +11457,7 @@
         <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>1252</v>
@@ -11491,7 +11491,7 @@
         <v>137</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>1189</v>
@@ -11528,7 +11528,7 @@
         <v>1069</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -11562,7 +11562,7 @@
         <v>1071</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -11579,7 +11579,7 @@
         <v>1072</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -11596,7 +11596,7 @@
         <v>1073</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -11618,7 +11618,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>593</v>
@@ -11627,10 +11627,10 @@
         <v>137</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -11851,7 +11851,7 @@
         <v>59</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -11958,7 +11958,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>593</v>
@@ -11967,10 +11967,10 @@
         <v>137</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -12086,7 +12086,7 @@
         <v>137</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>1243</v>
@@ -12094,7 +12094,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>593</v>
@@ -12239,7 +12239,7 @@
         <v>137</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>1206</v>
@@ -12256,7 +12256,7 @@
         <v>137</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>1207</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>593</v>
@@ -12570,7 +12570,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>593</v>
@@ -12582,7 +12582,7 @@
         <v>77</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -12715,7 +12715,7 @@
         <v>137</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>1264</v>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>593</v>
@@ -12732,12 +12732,12 @@
         <v>137</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>593</v>
@@ -12746,12 +12746,12 @@
         <v>137</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>593</v>
@@ -12760,7 +12760,7 @@
         <v>137</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -12879,7 +12879,7 @@
         <v>72</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -12947,7 +12947,7 @@
         <v>1186</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -13165,10 +13165,10 @@
         <v>137</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -13241,7 +13241,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>593</v>
@@ -13250,10 +13250,10 @@
         <v>137</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -13287,12 +13287,12 @@
         <v>73</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>593</v>
@@ -13301,10 +13301,10 @@
         <v>137</v>
       </c>
       <c r="F220" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>1354</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -13352,7 +13352,7 @@
         <v>137</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>1266</v>
@@ -13468,10 +13468,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>1432</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>1433</v>
       </c>
       <c r="C231" t="s">
         <v>136</v>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C236" t="s">
         <v>136</v>
@@ -13570,10 +13570,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>1539</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>1540</v>
       </c>
       <c r="C237" t="s">
         <v>146</v>
@@ -13770,10 +13770,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>1430</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>1431</v>
       </c>
       <c r="C247" t="s">
         <v>136</v>
@@ -13796,10 +13796,10 @@
         <v>138</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -13813,10 +13813,10 @@
         <v>138</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -13830,10 +13830,10 @@
         <v>138</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -13847,27 +13847,27 @@
         <v>138</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B252" s="6" t="s">
         <v>1448</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>1449</v>
       </c>
       <c r="C252" t="s">
         <v>138</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -13881,10 +13881,10 @@
         <v>138</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -13898,10 +13898,10 @@
         <v>138</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -13915,10 +13915,10 @@
         <v>138</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -13932,10 +13932,10 @@
         <v>138</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -13949,44 +13949,44 @@
         <v>138</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>1450</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>1451</v>
       </c>
       <c r="C258" t="s">
         <v>138</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>1452</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>1453</v>
       </c>
       <c r="C259" t="s">
         <v>138</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -14000,10 +14000,10 @@
         <v>138</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -14017,10 +14017,10 @@
         <v>138</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -14034,18 +14034,18 @@
         <v>138</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>1573</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>1574</v>
       </c>
       <c r="C264" t="s">
         <v>136</v>
@@ -14076,10 +14076,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C266" t="s">
         <v>136</v>
@@ -14093,10 +14093,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C267" t="s">
         <v>136</v>
@@ -14110,13 +14110,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C268" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>151</v>
@@ -14133,10 +14133,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C269" t="s">
         <v>143</v>
@@ -14156,10 +14156,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>1585</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>1586</v>
       </c>
       <c r="C270" t="s">
         <v>165</v>
@@ -14196,10 +14196,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>1553</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>1554</v>
       </c>
       <c r="C272" t="s">
         <v>136</v>
@@ -14213,10 +14213,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B273" s="6" t="s">
         <v>1555</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>1556</v>
       </c>
       <c r="C273" t="s">
         <v>136</v>
@@ -14230,13 +14230,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>1557</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="C274" t="s">
         <v>1558</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1559</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>151</v>
@@ -14253,10 +14253,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>1567</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>1568</v>
       </c>
       <c r="C275" t="s">
         <v>177</v>
@@ -14265,7 +14265,7 @@
         <v>1299</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F275" s="2">
         <v>2</v>
@@ -14276,19 +14276,19 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C276" t="s">
         <v>1569</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C276" t="s">
-        <v>1570</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>1299</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F276" s="2">
         <v>5</v>
@@ -14299,10 +14299,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>1560</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>1561</v>
       </c>
       <c r="C277" t="s">
         <v>177</v>
@@ -14311,7 +14311,7 @@
         <v>1299</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F277" s="2">
         <v>30</v>
@@ -14322,10 +14322,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>1563</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>1564</v>
       </c>
       <c r="C278" t="s">
         <v>177</v>
@@ -14334,7 +14334,7 @@
         <v>1299</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F278" s="2">
         <v>30</v>
@@ -14345,10 +14345,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B279" s="6" t="s">
         <v>1565</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>1566</v>
       </c>
       <c r="C279" t="s">
         <v>177</v>
@@ -14357,7 +14357,7 @@
         <v>1299</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F279" s="2">
         <v>5</v>
@@ -14368,19 +14368,19 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>1583</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>1584</v>
-      </c>
       <c r="C280" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>1299</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F280" s="2">
         <v>10</v>
@@ -14391,10 +14391,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>1587</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>1588</v>
       </c>
       <c r="C281" t="s">
         <v>165</v>
@@ -14417,10 +14417,10 @@
         <v>98</v>
       </c>
       <c r="B283" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C283" t="s">
         <v>1668</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1669</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>151</v>
@@ -14701,10 +14701,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B300" s="6" t="s">
         <v>1535</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>1536</v>
       </c>
       <c r="C300" t="s">
         <v>136</v>
@@ -14718,10 +14718,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C301" t="s">
         <v>136</v>
@@ -14735,10 +14735,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C302" t="s">
         <v>136</v>
@@ -14815,19 +14815,19 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C306" t="s">
         <v>144</v>
       </c>
       <c r="D306" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E306" s="5" t="s">
         <v>1480</v>
-      </c>
-      <c r="E306" s="5" t="s">
-        <v>1481</v>
       </c>
       <c r="F306" s="2">
         <v>10021</v>
@@ -14927,10 +14927,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>1471</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>1472</v>
       </c>
       <c r="C312" t="s">
         <v>146</v>
@@ -14990,10 +14990,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B315" s="6" t="s">
         <v>1645</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>1646</v>
       </c>
       <c r="C315" t="s">
         <v>136</v>
@@ -15007,10 +15007,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>1647</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>1648</v>
       </c>
       <c r="C316" t="s">
         <v>136</v>
@@ -15033,10 +15033,10 @@
         <v>138</v>
       </c>
       <c r="F318" s="15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G318" s="15" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -15112,7 +15112,7 @@
         <v>744</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C323" t="s">
         <v>138</v>
@@ -15137,27 +15137,27 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C326" t="s">
         <v>138</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C327" t="s">
         <v>144</v>
@@ -15177,10 +15177,10 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C328" t="s">
         <v>144</v>
@@ -15200,10 +15200,10 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>1424</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>1425</v>
       </c>
       <c r="C329" t="s">
         <v>144</v>
@@ -15223,10 +15223,10 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>1426</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>1427</v>
       </c>
       <c r="C330" t="s">
         <v>144</v>
@@ -15490,27 +15490,27 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B349" s="6" t="s">
         <v>1414</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>1415</v>
       </c>
       <c r="C349" t="s">
         <v>138</v>
       </c>
       <c r="F349" s="15" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G349" s="15" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B351" s="6" t="s">
         <v>1438</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>1439</v>
       </c>
       <c r="C351" t="s">
         <v>144</v>
@@ -15613,10 +15613,10 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>1474</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>1475</v>
       </c>
       <c r="C356" t="s">
         <v>136</v>
@@ -15670,10 +15670,10 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C359" t="s">
         <v>136</v>
@@ -15747,10 +15747,10 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B363" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>1411</v>
       </c>
       <c r="C363" t="s">
         <v>144</v>
@@ -15787,33 +15787,33 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C365" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>802</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B366" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C366" t="s">
         <v>1551</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1552</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>802</v>
@@ -15821,10 +15821,10 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B367" s="6" t="s">
         <v>1542</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>1543</v>
       </c>
       <c r="C367" t="s">
         <v>144</v>
@@ -15850,10 +15850,10 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B368" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>1413</v>
       </c>
       <c r="C368" t="s">
         <v>144</v>
@@ -15936,10 +15936,10 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C372" t="s">
         <v>144</v>
@@ -15948,7 +15948,7 @@
         <v>149</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F372" s="2">
         <v>50</v>
@@ -15959,19 +15959,19 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B373" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C373" t="s">
         <v>1489</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1490</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F373" s="2">
         <v>50</v>
@@ -15988,7 +15988,7 @@
         <v>451</v>
       </c>
       <c r="C374" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F374" s="2">
         <v>1</v>
@@ -16108,10 +16108,10 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B380" s="6" t="s">
         <v>1544</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>1545</v>
       </c>
       <c r="C380" t="s">
         <v>144</v>
@@ -16148,10 +16148,10 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B382" s="6" t="s">
         <v>1697</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>1698</v>
       </c>
       <c r="C382" t="s">
         <v>138</v>
@@ -16159,10 +16159,10 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B383" s="6" t="s">
         <v>1699</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>1700</v>
       </c>
       <c r="C383" t="s">
         <v>138</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B384" s="6" t="s">
         <v>1777</v>
-      </c>
-      <c r="B384" s="6" t="s">
-        <v>1779</v>
       </c>
       <c r="C384" t="s">
         <v>138</v>
@@ -16181,10 +16181,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B385" s="6" t="s">
         <v>1778</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>1780</v>
       </c>
       <c r="C385" t="s">
         <v>138</v>
@@ -16304,7 +16304,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>607</v>
@@ -16318,7 +16318,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>607</v>
@@ -16332,7 +16332,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>607</v>
@@ -16346,7 +16346,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>607</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>607</v>
@@ -16601,7 +16601,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>608</v>
@@ -16615,7 +16615,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>608</v>
@@ -16629,7 +16629,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>608</v>
@@ -16643,7 +16643,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>608</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>608</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>608</v>
@@ -16685,7 +16685,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>608</v>
@@ -16699,7 +16699,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>608</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>608</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>608</v>
@@ -16937,7 +16937,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>608</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>608</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>608</v>
@@ -16979,7 +16979,7 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>608</v>
@@ -16993,7 +16993,7 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>608</v>
@@ -17007,7 +17007,7 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>608</v>
@@ -17021,7 +17021,7 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>608</v>
@@ -17035,7 +17035,7 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>608</v>
@@ -17049,7 +17049,7 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>608</v>
@@ -17063,7 +17063,7 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>608</v>
@@ -17273,7 +17273,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>608</v>
@@ -17287,7 +17287,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>608</v>
@@ -17301,7 +17301,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>608</v>
@@ -17315,7 +17315,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>608</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>608</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>608</v>
@@ -17357,7 +17357,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>608</v>
@@ -17371,7 +17371,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>608</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>608</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>608</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>608</v>
@@ -17567,7 +17567,7 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>608</v>
@@ -17581,7 +17581,7 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B498" s="6" t="s">
         <v>608</v>
@@ -17595,7 +17595,7 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B499" s="6" t="s">
         <v>608</v>
@@ -17609,7 +17609,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>608</v>
@@ -17623,7 +17623,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>608</v>
@@ -17637,7 +17637,7 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>608</v>
@@ -17651,7 +17651,7 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B504" s="6" t="s">
         <v>608</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>608</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B506" s="6" t="s">
         <v>608</v>
@@ -17693,10 +17693,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B508" s="6" t="s">
         <v>1625</v>
-      </c>
-      <c r="B508" s="6" t="s">
-        <v>1626</v>
       </c>
       <c r="C508" t="s">
         <v>136</v>
@@ -17710,10 +17710,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C509" t="s">
         <v>136</v>
@@ -17727,13 +17727,13 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C510" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D510" s="5" t="s">
         <v>802</v>
@@ -17741,7 +17741,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>584</v>
@@ -17764,7 +17764,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>610</v>
@@ -17781,13 +17781,13 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C513" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D513" s="5" t="s">
         <v>802</v>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B514" s="6" t="s">
         <v>1055</v>
@@ -17812,7 +17812,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>1053</v>
@@ -17835,10 +17835,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C516" s="6" t="s">
         <v>144</v>
@@ -17858,10 +17858,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C517" s="6" t="s">
         <v>144</v>
@@ -17881,10 +17881,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C518" s="6" t="s">
         <v>136</v>
@@ -17898,10 +17898,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B519" s="6" t="s">
         <v>1631</v>
-      </c>
-      <c r="B519" s="6" t="s">
-        <v>1632</v>
       </c>
       <c r="C519" s="6" t="s">
         <v>136</v>
@@ -17915,10 +17915,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C520" s="6" t="s">
         <v>136</v>
@@ -17938,10 +17938,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B521" s="6" t="s">
         <v>1633</v>
-      </c>
-      <c r="B521" s="6" t="s">
-        <v>1634</v>
       </c>
       <c r="C521" s="6" t="s">
         <v>136</v>
@@ -17955,10 +17955,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C522" s="6" t="s">
         <v>136</v>
@@ -17972,33 +17972,33 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C523" s="6" t="s">
-        <v>1738</v>
+        <v>1888</v>
       </c>
       <c r="D523" s="5" t="s">
         <v>802</v>
       </c>
       <c r="F523" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G523" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C524" s="6" t="s">
         <v>1737</v>
-      </c>
-      <c r="B524" s="6" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C524" s="6" t="s">
-        <v>1739</v>
       </c>
       <c r="D524" s="5" t="s">
         <v>802</v>
@@ -18006,13 +18006,13 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C525" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D525" s="5" t="s">
         <v>802</v>
@@ -18026,13 +18026,13 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="C526" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D526" s="5" t="s">
         <v>802</v>
@@ -18040,13 +18040,13 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C527" s="6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D527" s="5" t="s">
         <v>802</v>
@@ -18060,13 +18060,13 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="C528" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D528" s="5" t="s">
         <v>802</v>
@@ -18074,13 +18074,13 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B529" s="6" t="s">
         <v>1747</v>
       </c>
-      <c r="B529" s="6" t="s">
-        <v>1749</v>
-      </c>
       <c r="C529" s="6" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D529" s="5" t="s">
         <v>802</v>
@@ -18088,10 +18088,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C530" s="6" t="s">
         <v>144</v>
@@ -18111,10 +18111,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="C531" s="6" t="s">
         <v>144</v>
@@ -18134,13 +18134,13 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C532" s="6" t="s">
         <v>1774</v>
-      </c>
-      <c r="B532" s="6" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C532" s="6" t="s">
-        <v>1776</v>
       </c>
       <c r="D532" s="5" t="s">
         <v>151</v>
@@ -18157,13 +18157,13 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C533" s="6" t="s">
         <v>1814</v>
-      </c>
-      <c r="B533" s="6" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C533" s="6" t="s">
-        <v>1816</v>
       </c>
       <c r="D533" s="5" t="s">
         <v>151</v>
@@ -18180,13 +18180,13 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C534" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D534" s="5" t="s">
         <v>802</v>
@@ -18194,13 +18194,13 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C535" s="6" t="s">
         <v>1754</v>
-      </c>
-      <c r="B535" s="6" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C535" s="6" t="s">
-        <v>1756</v>
       </c>
       <c r="D535" s="5" t="s">
         <v>802</v>
@@ -18208,13 +18208,13 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C536" s="6" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D536" s="5" t="s">
         <v>151</v>
@@ -18231,13 +18231,13 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B537" s="6" t="s">
         <v>1757</v>
       </c>
-      <c r="B537" s="6" t="s">
-        <v>1759</v>
-      </c>
       <c r="C537" s="6" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D537" s="5" t="s">
         <v>802</v>
@@ -18245,13 +18245,13 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B538" s="6" t="s">
         <v>1758</v>
       </c>
-      <c r="B538" s="6" t="s">
-        <v>1760</v>
-      </c>
       <c r="C538" s="6" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D538" s="5" t="s">
         <v>802</v>
@@ -18404,13 +18404,13 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C549" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D549" s="5" t="s">
         <v>163</v>
@@ -18419,10 +18419,10 @@
         <v>156</v>
       </c>
       <c r="F549" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G549" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -18467,19 +18467,19 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B553" s="6" t="s">
         <v>1493</v>
       </c>
-      <c r="B553" s="6" t="s">
-        <v>1494</v>
-      </c>
       <c r="C553" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D553" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E553" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F553" s="2">
         <v>100</v>
@@ -18490,19 +18490,19 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C554" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D554" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E554" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F554" s="2">
         <v>50</v>
@@ -18513,10 +18513,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B555" s="6" t="s">
         <v>1497</v>
-      </c>
-      <c r="B555" s="6" t="s">
-        <v>1498</v>
       </c>
       <c r="C555" t="s">
         <v>303</v>
@@ -18525,7 +18525,7 @@
         <v>183</v>
       </c>
       <c r="E555" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F555" s="2">
         <v>400</v>
@@ -18536,10 +18536,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B556" s="6" t="s">
         <v>1499</v>
-      </c>
-      <c r="B556" s="6" t="s">
-        <v>1500</v>
       </c>
       <c r="C556" t="s">
         <v>303</v>
@@ -18548,7 +18548,7 @@
         <v>183</v>
       </c>
       <c r="E556" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F556" s="2">
         <v>100</v>
@@ -18741,13 +18741,13 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B568" s="6" t="s">
         <v>1675</v>
       </c>
-      <c r="B568" s="6" t="s">
-        <v>1676</v>
-      </c>
       <c r="C568" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D568" s="5" t="s">
         <v>802</v>
@@ -19145,13 +19145,13 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B588" s="6" t="s">
         <v>1508</v>
       </c>
-      <c r="B588" s="6" t="s">
+      <c r="C588" t="s">
         <v>1509</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1510</v>
       </c>
       <c r="D588" s="5" t="s">
         <v>151</v>
@@ -19191,10 +19191,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C590" t="s">
         <v>136</v>
@@ -19237,7 +19237,7 @@
         <v>1297</v>
       </c>
       <c r="C593" s="16" t="s">
-        <v>1312</v>
+        <v>1889</v>
       </c>
       <c r="D593" s="5" t="s">
         <v>802</v>
@@ -19254,7 +19254,7 @@
         <v>1298</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C594" t="s">
         <v>177</v>
@@ -19274,19 +19274,19 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C595" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D595" s="5" t="s">
         <v>1299</v>
       </c>
       <c r="E595" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="F595" s="2">
         <v>3</v>
@@ -19343,13 +19343,13 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B598" s="6" t="s">
         <v>1618</v>
       </c>
-      <c r="B598" s="6" t="s">
+      <c r="C598" t="s">
         <v>1619</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1620</v>
       </c>
       <c r="D598" s="5" t="s">
         <v>802</v>
@@ -20327,10 +20327,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B647" s="6" t="s">
         <v>1670</v>
-      </c>
-      <c r="B647" s="6" t="s">
-        <v>1671</v>
       </c>
       <c r="C647" t="s">
         <v>751</v>
@@ -20350,13 +20350,13 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C648" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D648" s="5" t="s">
         <v>802</v>
@@ -20364,13 +20364,13 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B649" s="6" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C649" t="s">
         <v>1678</v>
-      </c>
-      <c r="B649" s="6" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C649" t="s">
-        <v>1679</v>
       </c>
       <c r="D649" s="5" t="s">
         <v>802</v>
@@ -20378,13 +20378,13 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C650" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D650" s="5" t="s">
         <v>802</v>
@@ -20392,13 +20392,13 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C651" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D651" s="5" t="s">
         <v>802</v>
@@ -20409,7 +20409,7 @@
         <v>281</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C653" t="s">
         <v>136</v>
@@ -20460,10 +20460,10 @@
         <v>288</v>
       </c>
       <c r="B656" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C656" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D656" s="5" t="s">
         <v>802</v>
@@ -20629,13 +20629,13 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C664" t="s">
         <v>1781</v>
-      </c>
-      <c r="B664" s="6" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1783</v>
       </c>
       <c r="D664" s="5" t="s">
         <v>151</v>
@@ -20952,10 +20952,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B680" s="6" t="s">
         <v>1546</v>
-      </c>
-      <c r="B680" s="6" t="s">
-        <v>1547</v>
       </c>
       <c r="C680" t="s">
         <v>177</v>
@@ -21015,10 +21015,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C683" t="s">
         <v>177</v>
@@ -21118,10 +21118,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C688" t="s">
         <v>177</v>
@@ -21564,7 +21564,7 @@
         <v>112</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C711" t="s">
         <v>136</v>
@@ -21578,10 +21578,10 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C712" t="s">
         <v>136</v>
@@ -21595,10 +21595,10 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C713" t="s">
         <v>136</v>
@@ -21612,10 +21612,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B714" s="6" t="s">
         <v>1524</v>
-      </c>
-      <c r="B714" s="6" t="s">
-        <v>1525</v>
       </c>
       <c r="C714" t="s">
         <v>136</v>
@@ -21632,7 +21632,7 @@
         <v>1280</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C715" t="s">
         <v>136</v>
@@ -21646,10 +21646,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C716" t="s">
         <v>136</v>
@@ -21985,10 +21985,10 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B734" s="6" t="s">
         <v>1732</v>
-      </c>
-      <c r="B734" s="6" t="s">
-        <v>1733</v>
       </c>
       <c r="C734" t="s">
         <v>136</v>
@@ -22019,13 +22019,13 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B736" s="6" t="s">
         <v>1729</v>
       </c>
-      <c r="B736" s="6" t="s">
+      <c r="C736" t="s">
         <v>1730</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1731</v>
       </c>
       <c r="D736" s="5" t="s">
         <v>151</v>
@@ -22102,7 +22102,7 @@
         <v>959</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C740" t="s">
         <v>144</v>
@@ -22125,7 +22125,7 @@
         <v>999</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C741" t="s">
         <v>1000</v>
@@ -22199,10 +22199,10 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C745" t="s">
         <v>136</v>
@@ -22216,19 +22216,19 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B746" s="6" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C746" t="s">
         <v>144</v>
       </c>
       <c r="D746" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E746" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="E746" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="F746" s="2">
         <v>1</v>
@@ -22239,19 +22239,19 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B747" s="6" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C747" t="s">
         <v>144</v>
       </c>
       <c r="D747" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E747" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="E747" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="F747" s="2">
         <v>1</v>
@@ -22262,19 +22262,19 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B748" s="6" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C748" t="s">
         <v>144</v>
       </c>
       <c r="D748" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E748" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="E748" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="F748" s="2">
         <v>1</v>
@@ -22285,19 +22285,19 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C749" t="s">
         <v>144</v>
       </c>
       <c r="D749" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E749" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="E749" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="F749" s="2">
         <v>1</v>
@@ -22308,19 +22308,19 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B750" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C750" t="s">
         <v>144</v>
       </c>
       <c r="D750" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E750" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="E750" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="F750" s="2">
         <v>1</v>
@@ -22331,19 +22331,19 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C751" t="s">
         <v>144</v>
       </c>
       <c r="D751" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E751" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="E751" s="5" t="s">
-        <v>1359</v>
       </c>
       <c r="F751" s="2">
         <v>1</v>
@@ -22354,10 +22354,10 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C752" t="s">
         <v>138</v>
@@ -22371,10 +22371,10 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B753" s="6" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C753" t="s">
         <v>144</v>
@@ -22394,10 +22394,10 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B754" s="6" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C754" t="s">
         <v>1158</v>
@@ -22414,10 +22414,10 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C755" t="s">
         <v>138</v>
@@ -22431,10 +22431,10 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C756" t="s">
         <v>144</v>
@@ -22454,10 +22454,10 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C757" t="s">
         <v>1158</v>
@@ -22474,10 +22474,10 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C758" t="s">
         <v>138</v>
@@ -22491,10 +22491,10 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C759" t="s">
         <v>144</v>
@@ -22514,10 +22514,10 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B760" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C760" t="s">
         <v>1158</v>
@@ -22534,13 +22534,13 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B761" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C761" t="s">
         <v>1379</v>
-      </c>
-      <c r="B761" s="6" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C761" t="s">
-        <v>1380</v>
       </c>
       <c r="D761" s="5" t="s">
         <v>802</v>
@@ -22554,10 +22554,10 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C762" t="s">
         <v>165</v>
@@ -22577,10 +22577,10 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B763" s="6" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C763" t="s">
         <v>136</v>
@@ -22594,10 +22594,10 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B764" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C764" t="s">
         <v>136</v>
@@ -22611,10 +22611,10 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B765" s="6" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C765" t="s">
         <v>136</v>
@@ -22628,10 +22628,10 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B766" s="6" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C766" t="s">
         <v>136</v>
@@ -22645,10 +22645,10 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B767" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C767" t="s">
         <v>136</v>
@@ -22662,10 +22662,10 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C768" t="s">
         <v>136</v>
@@ -22679,10 +22679,10 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B769" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C769" t="s">
         <v>136</v>
@@ -22696,10 +22696,10 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B770" s="6" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C770" t="s">
         <v>136</v>
@@ -22713,10 +22713,10 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B771" s="6" t="s">
         <v>1643</v>
-      </c>
-      <c r="B771" s="6" t="s">
-        <v>1644</v>
       </c>
       <c r="C771" t="s">
         <v>136</v>
@@ -22730,19 +22730,19 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B772" s="6" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C772" t="s">
         <v>1689</v>
-      </c>
-      <c r="C772" t="s">
-        <v>1690</v>
       </c>
       <c r="D772" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E772" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F772" s="2">
         <v>100</v>
@@ -22753,10 +22753,10 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B773" s="6" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C773" t="s">
         <v>136</v>
@@ -23393,10 +23393,10 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B808" s="6" t="s">
         <v>1703</v>
-      </c>
-      <c r="B808" s="6" t="s">
-        <v>1704</v>
       </c>
       <c r="C808" t="s">
         <v>165</v>
@@ -23413,10 +23413,10 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B809" s="6" t="s">
         <v>1705</v>
-      </c>
-      <c r="B809" s="6" t="s">
-        <v>1706</v>
       </c>
       <c r="C809" t="s">
         <v>143</v>
@@ -23433,10 +23433,10 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B810" s="6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C810" t="s">
         <v>165</v>
@@ -23453,10 +23453,10 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B811" s="6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C811" t="s">
         <v>165</v>
@@ -23473,10 +23473,10 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B812" s="6" t="s">
         <v>1708</v>
-      </c>
-      <c r="B812" s="6" t="s">
-        <v>1709</v>
       </c>
       <c r="C812" t="s">
         <v>136</v>
@@ -23910,16 +23910,16 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D838" s="5" t="s">
         <v>1803</v>
-      </c>
-      <c r="B838" s="6" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C838" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D838" s="5" t="s">
-        <v>1805</v>
       </c>
       <c r="E838" s="5" t="s">
         <v>152</v>
@@ -23950,10 +23950,10 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B840" s="6" t="s">
         <v>1511</v>
-      </c>
-      <c r="B840" s="6" t="s">
-        <v>1512</v>
       </c>
       <c r="C840" s="6" t="s">
         <v>144</v>
@@ -23973,10 +23973,10 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B841" s="6" t="s">
         <v>1513</v>
-      </c>
-      <c r="B841" s="6" t="s">
-        <v>1514</v>
       </c>
       <c r="C841" s="6" t="s">
         <v>144</v>
@@ -23996,16 +23996,16 @@
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B842" s="6" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C842" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D842" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E842" s="5" t="s">
         <v>265</v>
@@ -24019,10 +24019,10 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B843" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C843" s="6" t="s">
         <v>144</v>
@@ -24042,10 +24042,10 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B844" s="6" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C844" s="6" t="s">
         <v>144</v>
@@ -24088,10 +24088,10 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B846" s="6" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
@@ -24182,10 +24182,10 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B851" s="6" t="s">
         <v>1351</v>
-      </c>
-      <c r="B851" s="6" t="s">
-        <v>1352</v>
       </c>
       <c r="C851" s="6" t="s">
         <v>136</v>
@@ -24337,10 +24337,10 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B858" s="6" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C858" s="6" t="s">
         <v>136</v>
@@ -24354,10 +24354,10 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B859" s="6" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C859" s="6" t="s">
         <v>136</v>
@@ -24417,10 +24417,10 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B862" s="6" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C862" t="s">
         <v>136</v>
@@ -24589,16 +24589,16 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B870" s="6" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="C870" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D870" s="5" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="E870" s="5" t="s">
         <v>152</v>
@@ -24612,16 +24612,16 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B871" s="6" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="C871" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D871" s="5" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="E871" s="5" t="s">
         <v>152</v>
@@ -24635,10 +24635,10 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B872" s="6" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C872" t="s">
         <v>136</v>
@@ -24707,7 +24707,7 @@
         <v>1107</v>
       </c>
       <c r="C876" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D876" s="5" t="s">
         <v>802</v>
@@ -24721,7 +24721,7 @@
         <v>1126</v>
       </c>
       <c r="C877" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D877" s="5" t="s">
         <v>802</v>
@@ -24735,7 +24735,7 @@
         <v>1128</v>
       </c>
       <c r="C878" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D878" s="5" t="s">
         <v>802</v>
@@ -24743,13 +24743,13 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B879" s="6" t="s">
         <v>1384</v>
       </c>
-      <c r="B879" s="6" t="s">
-        <v>1385</v>
-      </c>
       <c r="C879" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D879" s="5" t="s">
         <v>802</v>
@@ -24757,13 +24757,13 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B880" s="6" t="s">
         <v>1398</v>
       </c>
-      <c r="B880" s="6" t="s">
-        <v>1399</v>
-      </c>
       <c r="C880" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D880" s="5" t="s">
         <v>802</v>
@@ -24777,7 +24777,7 @@
         <v>1115</v>
       </c>
       <c r="C881" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D881" s="5" t="s">
         <v>802</v>
@@ -24791,7 +24791,7 @@
         <v>1117</v>
       </c>
       <c r="C882" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D882" s="5" t="s">
         <v>802</v>
@@ -24805,7 +24805,7 @@
         <v>1101</v>
       </c>
       <c r="C883" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D883" s="5" t="s">
         <v>802</v>
@@ -24819,7 +24819,7 @@
         <v>1099</v>
       </c>
       <c r="C884" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D884" s="5" t="s">
         <v>802</v>
@@ -24833,7 +24833,7 @@
         <v>1124</v>
       </c>
       <c r="C885" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D885" s="5" t="s">
         <v>802</v>
@@ -24847,7 +24847,7 @@
         <v>1095</v>
       </c>
       <c r="C886" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D886" s="5" t="s">
         <v>802</v>
@@ -24861,7 +24861,7 @@
         <v>1097</v>
       </c>
       <c r="C887" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D887" s="5" t="s">
         <v>802</v>
@@ -24869,13 +24869,13 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B888" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="B888" s="6" t="s">
-        <v>1401</v>
-      </c>
       <c r="C888" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D888" s="5" t="s">
         <v>802</v>
@@ -24883,13 +24883,13 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B889" s="6" t="s">
         <v>1394</v>
       </c>
-      <c r="B889" s="6" t="s">
-        <v>1395</v>
-      </c>
       <c r="C889" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D889" s="5" t="s">
         <v>802</v>
@@ -24903,7 +24903,7 @@
         <v>1105</v>
       </c>
       <c r="C890" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D890" s="5" t="s">
         <v>802</v>
@@ -24911,13 +24911,13 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B891" s="6" t="s">
         <v>1408</v>
       </c>
-      <c r="B891" s="6" t="s">
-        <v>1409</v>
-      </c>
       <c r="C891" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D891" s="5" t="s">
         <v>802</v>
@@ -24931,7 +24931,7 @@
         <v>1091</v>
       </c>
       <c r="C892" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D892" s="5" t="s">
         <v>802</v>
@@ -24939,13 +24939,13 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B893" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="B893" s="6" t="s">
+      <c r="C893" t="s">
         <v>1389</v>
-      </c>
-      <c r="C893" t="s">
-        <v>1390</v>
       </c>
       <c r="D893" s="5" t="s">
         <v>802</v>
@@ -24953,13 +24953,13 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B894" s="6" t="s">
         <v>1396</v>
       </c>
-      <c r="B894" s="6" t="s">
-        <v>1397</v>
-      </c>
       <c r="C894" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D894" s="5" t="s">
         <v>802</v>
@@ -24973,7 +24973,7 @@
         <v>1103</v>
       </c>
       <c r="C895" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D895" s="5" t="s">
         <v>802</v>
@@ -24987,7 +24987,7 @@
         <v>1109</v>
       </c>
       <c r="C897" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D897" s="5" t="s">
         <v>802</v>
@@ -25001,7 +25001,7 @@
         <v>1119</v>
       </c>
       <c r="C898" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D898" s="5" t="s">
         <v>802</v>
@@ -25015,7 +25015,7 @@
         <v>1089</v>
       </c>
       <c r="C899" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D899" s="5" t="s">
         <v>802</v>
@@ -25023,13 +25023,13 @@
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B900" s="6" t="s">
         <v>1701</v>
       </c>
-      <c r="B900" s="6" t="s">
-        <v>1702</v>
-      </c>
       <c r="C900" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D900" s="5" t="s">
         <v>802</v>
@@ -25043,7 +25043,7 @@
         <v>1282</v>
       </c>
       <c r="C901" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D901" s="5" t="s">
         <v>802</v>
@@ -25057,7 +25057,7 @@
         <v>1113</v>
       </c>
       <c r="C902" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D902" s="5" t="s">
         <v>802</v>
@@ -25071,7 +25071,7 @@
         <v>1131</v>
       </c>
       <c r="C903" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D903" s="5" t="s">
         <v>802</v>
@@ -25079,13 +25079,13 @@
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B904" s="6" t="s">
         <v>1402</v>
       </c>
-      <c r="B904" s="6" t="s">
-        <v>1403</v>
-      </c>
       <c r="C904" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D904" s="5" t="s">
         <v>802</v>
@@ -25093,13 +25093,13 @@
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B905" s="6" t="s">
         <v>1404</v>
       </c>
-      <c r="B905" s="6" t="s">
-        <v>1405</v>
-      </c>
       <c r="C905" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D905" s="5" t="s">
         <v>802</v>
@@ -25113,7 +25113,7 @@
         <v>1121</v>
       </c>
       <c r="C906" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D906" s="5" t="s">
         <v>802</v>
@@ -25127,7 +25127,7 @@
         <v>1093</v>
       </c>
       <c r="C907" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D907" s="5" t="s">
         <v>802</v>
@@ -25141,7 +25141,7 @@
         <v>1111</v>
       </c>
       <c r="C908" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D908" s="5" t="s">
         <v>802</v>
@@ -25149,81 +25149,81 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B910" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C910" t="s">
         <v>138</v>
       </c>
       <c r="F910" s="15" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G910" s="15" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B911" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C911" t="s">
         <v>138</v>
       </c>
       <c r="F911" s="15" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G911" s="15" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B912" s="6" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C912" t="s">
         <v>138</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G912" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B913" s="6" t="s">
         <v>1316</v>
-      </c>
-      <c r="B913" s="6" t="s">
-        <v>1317</v>
       </c>
       <c r="C913" t="s">
         <v>138</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G913" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B914" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="B914" s="6" t="s">
+      <c r="C914" t="s">
         <v>1319</v>
-      </c>
-      <c r="C914" t="s">
-        <v>1320</v>
       </c>
       <c r="F914" s="2">
         <v>256</v>
@@ -25234,10 +25234,10 @@
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B915" s="6" t="s">
         <v>1321</v>
-      </c>
-      <c r="B915" s="6" t="s">
-        <v>1322</v>
       </c>
       <c r="C915" t="s">
         <v>144</v>
@@ -25246,7 +25246,7 @@
         <v>151</v>
       </c>
       <c r="E915" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F915" s="2">
         <v>3</v>
@@ -25263,19 +25263,19 @@
     </row>
     <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B916" s="6" t="s">
         <v>1324</v>
-      </c>
-      <c r="B916" s="6" t="s">
-        <v>1325</v>
       </c>
       <c r="C916" t="s">
         <v>144</v>
       </c>
       <c r="D916" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E916" s="5" t="s">
         <v>1326</v>
-      </c>
-      <c r="E916" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="H916" s="2">
         <v>59</v>
@@ -25292,19 +25292,19 @@
     </row>
     <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B917" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C917" t="s">
         <v>144</v>
       </c>
       <c r="D917" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E917" s="5" t="s">
         <v>1326</v>
-      </c>
-      <c r="E917" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="F917" s="2">
         <v>90</v>
@@ -25327,19 +25327,19 @@
     </row>
     <row r="918" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B918" s="6" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C918" t="s">
         <v>144</v>
       </c>
       <c r="D918" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E918" s="5" t="s">
         <v>1326</v>
-      </c>
-      <c r="E918" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="F918" s="2">
         <v>-90</v>
@@ -25362,19 +25362,19 @@
     </row>
     <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B919" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C919" t="s">
         <v>144</v>
       </c>
       <c r="D919" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E919" s="5" t="s">
         <v>1335</v>
-      </c>
-      <c r="E919" s="5" t="s">
-        <v>1336</v>
       </c>
       <c r="H919" s="2">
         <v>24</v>
@@ -25391,19 +25391,19 @@
     </row>
     <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B920" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C920" t="s">
         <v>144</v>
       </c>
       <c r="D920" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E920" s="5" t="s">
         <v>1335</v>
-      </c>
-      <c r="E920" s="5" t="s">
-        <v>1336</v>
       </c>
       <c r="F920" s="2">
         <v>180</v>
@@ -25426,19 +25426,19 @@
     </row>
     <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B921" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C921" t="s">
         <v>144</v>
       </c>
       <c r="D921" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E921" s="5" t="s">
         <v>1335</v>
-      </c>
-      <c r="E921" s="5" t="s">
-        <v>1336</v>
       </c>
       <c r="F921" s="2">
         <v>-180</v>
@@ -25461,19 +25461,19 @@
     </row>
     <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B922" s="6" t="s">
         <v>1337</v>
       </c>
-      <c r="B922" s="6" t="s">
-        <v>1338</v>
-      </c>
       <c r="C922" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D922" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E922" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F922" s="2">
         <v>50</v>
@@ -25484,13 +25484,13 @@
     </row>
     <row r="923" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B923" s="6" t="s">
         <v>1341</v>
       </c>
-      <c r="B923" s="6" t="s">
-        <v>1342</v>
-      </c>
       <c r="C923" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D923" s="5" t="s">
         <v>149</v>
@@ -25507,19 +25507,19 @@
     </row>
     <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B924" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C924" t="s">
         <v>144</v>
       </c>
       <c r="D924" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E924" s="5" t="s">
         <v>1347</v>
-      </c>
-      <c r="E924" s="5" t="s">
-        <v>1348</v>
       </c>
       <c r="F924" s="2">
         <v>40</v>
@@ -25530,19 +25530,19 @@
     </row>
     <row r="925" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B925" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C925" t="s">
         <v>144</v>
       </c>
       <c r="D925" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E925" s="5" t="s">
         <v>1347</v>
-      </c>
-      <c r="E925" s="5" t="s">
-        <v>1348</v>
       </c>
       <c r="F925" s="2">
         <v>30</v>
@@ -25553,19 +25553,19 @@
     </row>
     <row r="926" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B926" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C926" t="s">
         <v>144</v>
       </c>
       <c r="D926" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E926" s="5" t="s">
         <v>1347</v>
-      </c>
-      <c r="E926" s="5" t="s">
-        <v>1348</v>
       </c>
       <c r="F926" s="2">
         <v>95</v>
@@ -25575,6 +25575,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -27367,720 +27368,718 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF60C891-CC4F-4B7B-B95E-F7763AC250C3}">
   <dimension ref="A1:A156"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -28095,7 +28094,7 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -28105,7 +28104,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
@@ -28120,7 +28119,7 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
@@ -28135,11 +28134,11 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="A151">
     <cfRule type="expression" dxfId="161" priority="134">
       <formula>F1048545&lt;&gt;G1048545</formula>
@@ -28785,227 +28784,227 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -29015,17 +29014,17 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
